--- a/kh db.xlsx
+++ b/kh db.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="20475" windowHeight="8970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17235" windowHeight="3555"/>
   </bookViews>
   <sheets>
     <sheet name="회원관련 테이블" sheetId="1" r:id="rId1"/>
     <sheet name="수강관련 테이블" sheetId="2" r:id="rId2"/>
     <sheet name="도서관련 테이블" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A4:N11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="141">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,10 +343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>restcount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>학년 or 근무년수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -358,19 +355,221 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>semester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이수 학기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록년도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num2</t>
+  </si>
+  <si>
+    <t>num3</t>
+  </si>
+  <si>
+    <t>학과 또는 업무부서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동증가 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 학번 및 교번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인 연락처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rest_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>휴학횟수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>semester</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이수 학기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
+    <t>parent_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호자 성함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호자 연락처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호자 직업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호자 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호자 우편번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>major_kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공과 문과 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finish_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업이수 학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kh_noticeBoard(공지사항)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시퀀스 넘버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓴이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kh_vacation(휴가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴가 신청자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacStart_yy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴가 시작 년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacStart_mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacStart_dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴가 시작 월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴가 시작 일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,7 +603,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,8 +622,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -548,13 +753,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -621,6 +852,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -629,6 +863,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,6 +896,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -692,7 +947,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -727,7 +982,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -936,10 +1191,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F30"/>
+  <dimension ref="B3:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -982,22 +1237,22 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>21</v>
+      <c r="B9" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>89</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
@@ -1008,11 +1263,11 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="6" t="s">
-        <v>0</v>
+      <c r="B10" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="15" t="s">
@@ -1023,11 +1278,11 @@
       </c>
     </row>
     <row r="11" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="6" t="s">
-        <v>1</v>
+      <c r="B11" s="26" t="s">
+        <v>92</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="13" t="s">
@@ -1037,180 +1292,343 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>24</v>
+    <row r="12" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="10"/>
       <c r="F12" s="20"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>25</v>
+      <c r="B13" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="D13" s="2"/>
+      <c r="E13" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="24"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>26</v>
+      <c r="B14" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>99</v>
       </c>
       <c r="D14" s="2"/>
+      <c r="E14" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="6" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="6" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="6" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="6" t="s">
+      <c r="E25" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="11" t="s">
+      <c r="E26" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
+      <c r="C35" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B29" r:id="rId1" display="http://endic.naver.com/search.nhn?query=semester"/>
+    <hyperlink ref="B33" r:id="rId1" display="http://endic.naver.com/search.nhn?query=semester"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1236,14 +1654,14 @@
   <sheetData>
     <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="F2" s="24" t="s">
+      <c r="D2" s="24"/>
+      <c r="F2" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="24"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="18"/>
@@ -1539,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1620,20 +2038,20 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="23"/>
+      <c r="F8" s="24"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="23"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1909,5 +2327,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/kh db.xlsx
+++ b/kh db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17235" windowHeight="3555"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17235" windowHeight="3555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="회원관련 테이블" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="도서관련 테이블" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A4:N11"/>
+  <oleSize ref="A1:S21"/>
 </workbook>
 </file>
 
@@ -855,6 +855,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -863,24 +881,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1193,8 +1193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1237,21 +1237,21 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="24"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="27" t="s">
         <v>89</v>
       </c>
       <c r="D9" s="3"/>
@@ -1263,7 +1263,7 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="23" t="s">
         <v>90</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1278,7 +1278,7 @@
       </c>
     </row>
     <row r="11" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="23" t="s">
         <v>92</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -1293,7 +1293,7 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="23" t="s">
         <v>93</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1304,30 +1304,30 @@
       <c r="F12" s="20"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="25" t="s">
         <v>96</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>97</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="24"/>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="24" t="s">
         <v>98</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="30" t="s">
+      <c r="F14" s="27" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="24" t="s">
         <v>100</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1377,7 +1377,7 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="24" t="s">
         <v>102</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1408,10 +1408,10 @@
         <v>45</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="24"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
@@ -1421,10 +1421,10 @@
         <v>46</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="31" t="s">
+      <c r="E21" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="27" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -1654,14 +1654,14 @@
   <sheetData>
     <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="F2" s="25" t="s">
+      <c r="D2" s="30"/>
+      <c r="F2" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="25"/>
+      <c r="G2" s="31"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="18"/>
@@ -2038,20 +2038,20 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="24"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="24"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>

--- a/kh db.xlsx
+++ b/kh db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17235" windowHeight="3555" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17235" windowHeight="3750"/>
   </bookViews>
   <sheets>
     <sheet name="회원관련 테이블" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="도서관련 테이블" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:S21"/>
+  <oleSize ref="A10:N18"/>
 </workbook>
 </file>
 
@@ -1193,7 +1193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -1639,7 +1639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>

--- a/kh db.xlsx
+++ b/kh db.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GeunWoo\Project\git\KH\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17235" windowHeight="3750"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17235" windowHeight="3750"/>
   </bookViews>
   <sheets>
     <sheet name="회원관련 테이블" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,11 @@
     <sheet name="도서관련 테이블" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A10:N18"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="166">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,10 +271,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kh_rent(대여테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>학번</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,293 +283,383 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>kh_reserve(예약테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zipcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kh_post(우편 테이블)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학년 or 근무년수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업일 or 마지막 근무일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이수 학기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 유형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록년도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num2</t>
+  </si>
+  <si>
+    <t>num3</t>
+  </si>
+  <si>
+    <t>학과 또는 업무부서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동증가 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 학번 및 교번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인 연락처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rest_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴학횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호자 성함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호자 연락처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parent_job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호자 직업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호자 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호자 우편번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>major_kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공과 문과 구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finish_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업이수 학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kh_noticeBoard(공지사항)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시퀀스 넘버</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>writer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reg_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓴이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kh_vacation(휴가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴가 신청자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacStart_yy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴가 시작 년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacStart_mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vacStart_dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴가 시작 월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴가 시작 일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>NUM</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>MAJOR</t>
+  </si>
+  <si>
+    <t>GRADE</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>PHONE</t>
+  </si>
+  <si>
+    <t>ADDR</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>WHY</t>
+  </si>
+  <si>
+    <t>WHY_DETAIL</t>
+  </si>
+  <si>
+    <t>RESULT</t>
+  </si>
+  <si>
+    <t>REG_DATE</t>
+  </si>
+  <si>
+    <t>BOARD_TYPE</t>
+  </si>
+  <si>
+    <t>글번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학년</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연락처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴학타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구체적 사유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KH_RESTRETURN_SCHOOL_BOARD(휴ㆍ복학)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>b_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>반납예정일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>return</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연장횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extension</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kh_reserve(예약테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대여예정일</t>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zipcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kh_post(우편 테이블)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학년 or 근무년수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸업일 or 마지막 근무일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>semester</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이수 학기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 유형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록년도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num2</t>
-  </si>
-  <si>
-    <t>num3</t>
-  </si>
-  <si>
-    <t>학과 또는 업무부서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동증가 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 학번 및 교번</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성별</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s_phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>본인 연락처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rest_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴학횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parent_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보호자 성함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보호자 연락처</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parent_job</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보호자 직업</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_addr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보호자 주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p_post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보호자 우편번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>major_kind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공과 문과 구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>finish_point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>졸업이수 학점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kh_noticeBoard(공지사항)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시퀀스 넘버</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>writer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reg_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글쓴이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kh_vacation(휴가)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴가 신청자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vacStart_yy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴가 시작 년</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vacStart_mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vacStart_dd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴가 시작 월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴가 시작 일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,7 +719,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -753,39 +843,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -863,15 +927,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1191,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F41"/>
+  <dimension ref="B3:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1203,7 +1258,7 @@
     <col min="3" max="3" width="23.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.75" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1237,26 +1292,26 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="30"/>
+      <c r="E8" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>89</v>
+      <c r="C9" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>21</v>
@@ -1264,40 +1319,40 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="23" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="E10" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="23" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="23" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="10"/>
@@ -1305,30 +1360,30 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="25" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" s="30"/>
+      <c r="E13" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="27" t="s">
-        <v>120</v>
+      <c r="F14" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
@@ -1340,25 +1395,25 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="17" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="24" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="17" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
@@ -1370,25 +1425,25 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="17" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="24" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="13" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1408,10 +1463,10 @@
         <v>45</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="E20" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="30"/>
+      <c r="E20" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
@@ -1421,11 +1476,11 @@
         <v>46</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="E21" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>120</v>
+      <c r="E21" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
@@ -1437,10 +1492,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="17" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
@@ -1455,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
@@ -1469,35 +1524,35 @@
         <v>10</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>139</v>
+      <c r="E26" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1508,10 +1563,10 @@
         <v>49</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="2:6" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -1524,101 +1579,100 @@
     </row>
     <row r="29" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B29" s="17" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B30" s="17" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B31" s="17" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B32" s="17" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="17" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B34" s="17" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B35" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="17" t="s">
+    <row r="40" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C40" s="14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B8:C8"/>
@@ -1640,7 +1694,7 @@
   <dimension ref="B1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1654,14 +1708,14 @@
   <sheetData>
     <row r="1" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="F2" s="31" t="s">
+      <c r="D2" s="27"/>
+      <c r="F2" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="31"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="18"/>
@@ -1955,10 +2009,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1971,9 +2025,11 @@
     <col min="7" max="7" width="2.75" customWidth="1"/>
     <col min="8" max="8" width="7.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.375" customWidth="1"/>
+    <col min="11" max="11" width="17.25" customWidth="1"/>
+    <col min="12" max="12" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1982,7 +2038,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1991,7 +2047,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2000,7 +2056,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2009,7 +2065,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2018,7 +2074,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2027,7 +2083,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2036,24 +2092,22 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="30"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="30"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" s="30"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H8" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
         <v>12</v>
@@ -2062,21 +2116,21 @@
         <v>21</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>65</v>
-      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="1"/>
       <c r="H9" s="4" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K9" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="L9" s="27"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="6" t="s">
         <v>0</v>
@@ -2085,21 +2139,23 @@
         <v>22</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="1"/>
       <c r="H10" s="17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="6" t="s">
         <v>1</v>
@@ -2108,21 +2164,23 @@
         <v>23</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>69</v>
-      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="1"/>
       <c r="H11" s="13" t="s">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="6" t="s">
         <v>2</v>
@@ -2131,17 +2189,23 @@
         <v>24</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>71</v>
-      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="20"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H12" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="6" t="s">
         <v>3</v>
@@ -2153,8 +2217,14 @@
       <c r="E13" s="10"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K13" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="6" t="s">
         <v>4</v>
@@ -2166,8 +2236,14 @@
       <c r="E14" s="10"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K14" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
         <v>5</v>
@@ -2179,8 +2255,14 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K15" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="6" t="s">
         <v>6</v>
@@ -2192,8 +2274,14 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K16" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="6" t="s">
         <v>7</v>
@@ -2205,8 +2293,14 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K17" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="6" t="s">
         <v>8</v>
@@ -2218,8 +2312,14 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K18" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="6" t="s">
         <v>28</v>
@@ -2231,8 +2331,14 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K19" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="6" t="s">
         <v>9</v>
@@ -2244,8 +2350,14 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K20" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="6" t="s">
         <v>10</v>
@@ -2257,8 +2369,14 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K21" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -2270,8 +2388,14 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K22" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="11" t="s">
         <v>18</v>
@@ -2283,8 +2407,14 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K23" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="15" t="s">
         <v>48</v>
@@ -2297,7 +2427,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="13" t="s">
         <v>51</v>
@@ -2310,7 +2440,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2320,10 +2450,11 @@
       <c r="G26" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K9:L9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
